--- a/DATOS COVID19.xlsx
+++ b/DATOS COVID19.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emman\Documents\GitHub\COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{326D4765-DE6A-4E99-952A-15E268527B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970E14A8-E34C-406F-9A6E-0B5003C338B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS COVID19-30-03-2019" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1948,7 +1958,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -16047,7 +16057,9 @@
               <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -16750,6 +16762,29 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18302,11 +18337,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O67" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AT86" sqref="AT86"/>
+    <sheetView tabSelected="1" topLeftCell="AB79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AX92" sqref="AX92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29346,12 +29381,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q160" r:id="rId1"/>
-    <hyperlink ref="Q159" r:id="rId2"/>
-    <hyperlink ref="Q158" r:id="rId3"/>
-    <hyperlink ref="Q157" r:id="rId4"/>
-    <hyperlink ref="Q156" r:id="rId5"/>
-    <hyperlink ref="Q155" r:id="rId6"/>
+    <hyperlink ref="Q160" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q159" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Q158" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q157" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q156" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q155" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId7"/>

--- a/DATOS COVID19.xlsx
+++ b/DATOS COVID19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emman\Documents\GitHub\COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970E14A8-E34C-406F-9A6E-0B5003C338B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C1D7C4-1A37-44D5-A64D-A18BAAACFFE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="651">
   <si>
     <t>Fecha</t>
   </si>
@@ -1953,6 +1953,36 @@
   </si>
   <si>
     <t>https://www.nytimes.com/reuters/2020/03/31/world/americas/31reuters-mexico-president.html?searchResultPosition=1</t>
+  </si>
+  <si>
+    <t>209.74M</t>
+  </si>
+  <si>
+    <t>United States Deports Haitians Despite Coronavirus Fears</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/reuters/2020/04/07/world/americas/07reuters-health-coronavirus-haiti.html?searchResultPosition=1</t>
+  </si>
+  <si>
+    <t>173.30M</t>
+  </si>
+  <si>
+    <t>838.25M</t>
+  </si>
+  <si>
+    <t>Most Small Factories in England Plan Job Cuts, Despite Government Help: Survey</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/reuters/2020/04/08/world/europe/08reuters-britain-economy-manufacturers.html?searchResultPosition=1</t>
+  </si>
+  <si>
+    <t>925.80M</t>
+  </si>
+  <si>
+    <t>Panama Reports 224 New Coronavirus Cases, Bringing Total to 2,752</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/reuters/2020/04/09/world/americas/09reuters-health-coronavirus-panama.html?searchResultPosition=1</t>
   </si>
 </sst>
 </file>
@@ -2621,10 +2651,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>43710</c:v>
                 </c:pt>
@@ -3101,16 +3131,25 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$B$2:$B$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$B$2:$B$163</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>42108.23</c:v>
                 </c:pt>
@@ -3586,6 +3625,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="158" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>34526.31</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>34567.78</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3623,10 +3671,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>43710</c:v>
                 </c:pt>
@@ -4103,16 +4151,25 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$C$2:$C$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$C$2:$C$163</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>42621.87</c:v>
                 </c:pt>
@@ -4589,6 +4646,15 @@
                 </c:pt>
                 <c:pt idx="158" formatCode="General">
                   <c:v>33641.07</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>34688.32</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>34625.07</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4625,10 +4691,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>43710</c:v>
                 </c:pt>
@@ -5105,16 +5171,25 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$D$2:$D$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$D$2:$D$163</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5590,6 +5665,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5627,10 +5711,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>43710</c:v>
                 </c:pt>
@@ -6107,16 +6191,25 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$E$2:$E$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$E$2:$E$163</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6593,6 +6686,15 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>7786.83</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7887.26</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8090.9</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8153.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6629,10 +6731,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>43710</c:v>
                 </c:pt>
@@ -7109,16 +7211,25 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$F$2:$F$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$F$2:$F$163</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7595,6 +7706,15 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>7660.77</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8129.99</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7975.72</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8169.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7631,10 +7751,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>43710</c:v>
                 </c:pt>
@@ -8111,16 +8231,25 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$G$2:$G$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$G$2:$G$163</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8596,6 +8725,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8635,10 +8773,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>43710</c:v>
                 </c:pt>
@@ -9115,16 +9253,25 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$H$2:$H$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$H$2:$H$163</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9601,6 +9748,15 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>2631.2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2659.41</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2749.98</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2789.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9639,10 +9795,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>43710</c:v>
                 </c:pt>
@@ -10119,16 +10275,25 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$I$2:$I$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$I$2:$I$163</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10605,6 +10770,15 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>1116.3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1139.17</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1191.6600000000001</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1246.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10643,10 +10817,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>43710</c:v>
                 </c:pt>
@@ -11123,16 +11297,25 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$J$2:$J$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$J$2:$J$163</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11609,6 +11792,15 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>1097.05</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1158.17</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1151.01</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1212.6600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11647,10 +11839,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>43710</c:v>
                 </c:pt>
@@ -12127,16 +12319,25 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$K$2:$K$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$K$2:$K$163</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>20.1477</c:v>
                 </c:pt>
@@ -12613,6 +12814,15 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>24.778500000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>24.311499999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>24.012499999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>23.634499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12651,10 +12861,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>43710</c:v>
                 </c:pt>
@@ -13131,16 +13341,25 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$L$2:$L$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$L$2:$L$163</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>20.062799999999999</c:v>
                 </c:pt>
@@ -13617,6 +13836,15 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>25.277200000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>24.631599999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>24.311499999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>24.003399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13655,10 +13883,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>43710</c:v>
                 </c:pt>
@@ -14135,16 +14363,25 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$M$2:$M$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$M$2:$M$163</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>22.098099999999999</c:v>
                 </c:pt>
@@ -14621,6 +14858,15 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>26.761399999999998</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>26.477599999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>26.072800000000001</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>25.815999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14660,10 +14906,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$A$2:$A$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>43710</c:v>
                 </c:pt>
@@ -15140,16 +15386,25 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$N$2:$N$160</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$N$2:$N$163</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="162"/>
                 <c:pt idx="0">
                   <c:v>22.058299999999999</c:v>
                 </c:pt>
@@ -15626,6 +15881,15 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>27.311</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>26.584900000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>26.477599999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>26.067699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15935,10 +16199,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$R$127:$R$158</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$R$127:$R$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -16034,6 +16298,21 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16065,10 +16344,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$R$127:$R$158</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$R$127:$R$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -16164,16 +16443,31 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$T$127:$T$158</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$T$127:$T$163</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16269,6 +16563,21 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1688</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2143</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2439</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2785</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3181</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16293,10 +16602,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$R$127:$R$158</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$R$127:$R$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -16392,6 +16701,21 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16421,10 +16745,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$R$127:$R$158</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$R$127:$R$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -16520,16 +16844,31 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DATOS COVID19-30-03-2019'!$V$127:$V$158</c:f>
+              <c:f>'DATOS COVID19-30-03-2019'!$V$127:$V$162</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16625,6 +16964,18 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18338,10 +18689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V160"/>
+  <dimension ref="A1:V163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AX92" sqref="AX92"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="AE158" sqref="AE158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27381,7 +27732,7 @@
         <v>59</v>
       </c>
       <c r="V131">
-        <f t="shared" ref="V131:V159" si="2">T132-T131</f>
+        <f t="shared" ref="V131:V163" si="2">T132-T131</f>
         <v>2</v>
       </c>
     </row>
@@ -29314,7 +29665,7 @@
       </c>
       <c r="V159">
         <f t="shared" si="2"/>
-        <v>-2143</v>
+        <v>296</v>
       </c>
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.25">
@@ -29375,20 +29726,228 @@
       <c r="S160">
         <v>1210956</v>
       </c>
+      <c r="T160">
+        <v>2439</v>
+      </c>
       <c r="U160">
         <v>307318</v>
+      </c>
+      <c r="V160">
+        <f t="shared" si="2"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B161" s="2">
+        <v>34526.31</v>
+      </c>
+      <c r="C161" s="2">
+        <v>34688.32</v>
+      </c>
+      <c r="D161" t="s">
+        <v>641</v>
+      </c>
+      <c r="E161" s="2">
+        <v>7887.26</v>
+      </c>
+      <c r="F161" s="2">
+        <v>8129.99</v>
+      </c>
+      <c r="G161" t="s">
+        <v>610</v>
+      </c>
+      <c r="H161" s="2">
+        <v>2659.41</v>
+      </c>
+      <c r="I161" s="2">
+        <v>1139.17</v>
+      </c>
+      <c r="J161" s="2">
+        <v>1158.17</v>
+      </c>
+      <c r="K161">
+        <v>24.311499999999999</v>
+      </c>
+      <c r="L161">
+        <v>24.631599999999999</v>
+      </c>
+      <c r="M161">
+        <v>26.477599999999999</v>
+      </c>
+      <c r="N161">
+        <v>26.584900000000001</v>
+      </c>
+      <c r="O161" t="s">
+        <v>642</v>
+      </c>
+      <c r="P161" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>643</v>
+      </c>
+      <c r="R161" s="1">
+        <v>43928</v>
+      </c>
+      <c r="S161">
+        <v>1279722</v>
+      </c>
+      <c r="T161">
+        <v>2785</v>
+      </c>
+      <c r="U161">
+        <v>333811</v>
+      </c>
+      <c r="V161">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B162" s="2">
+        <v>34567.78</v>
+      </c>
+      <c r="C162" s="2">
+        <v>34625.07</v>
+      </c>
+      <c r="D162" t="s">
+        <v>644</v>
+      </c>
+      <c r="E162" s="2">
+        <v>8090.9</v>
+      </c>
+      <c r="F162" s="2">
+        <v>7975.72</v>
+      </c>
+      <c r="G162" t="s">
+        <v>645</v>
+      </c>
+      <c r="H162" s="2">
+        <v>2749.98</v>
+      </c>
+      <c r="I162" s="2">
+        <v>1191.6600000000001</v>
+      </c>
+      <c r="J162" s="2">
+        <v>1151.01</v>
+      </c>
+      <c r="K162">
+        <v>24.012499999999999</v>
+      </c>
+      <c r="L162">
+        <v>24.311499999999999</v>
+      </c>
+      <c r="M162">
+        <v>26.072800000000001</v>
+      </c>
+      <c r="N162">
+        <v>26.477599999999999</v>
+      </c>
+      <c r="O162" t="s">
+        <v>646</v>
+      </c>
+      <c r="P162" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>647</v>
+      </c>
+      <c r="R162" s="1">
+        <v>43929</v>
+      </c>
+      <c r="S162">
+        <v>1353361</v>
+      </c>
+      <c r="T162">
+        <v>3181</v>
+      </c>
+      <c r="U162">
+        <v>363321</v>
+      </c>
+      <c r="V162">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B163" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" t="s">
+        <v>21</v>
+      </c>
+      <c r="E163" s="2">
+        <v>8153.58</v>
+      </c>
+      <c r="F163" s="2">
+        <v>8169.01</v>
+      </c>
+      <c r="G163" t="s">
+        <v>648</v>
+      </c>
+      <c r="H163" s="2">
+        <v>2789.82</v>
+      </c>
+      <c r="I163" s="2">
+        <v>1246.73</v>
+      </c>
+      <c r="J163" s="2">
+        <v>1212.6600000000001</v>
+      </c>
+      <c r="K163">
+        <v>23.634499999999999</v>
+      </c>
+      <c r="L163">
+        <v>24.003399999999999</v>
+      </c>
+      <c r="M163">
+        <v>25.815999999999999</v>
+      </c>
+      <c r="N163">
+        <v>26.067699999999999</v>
+      </c>
+      <c r="O163" t="s">
+        <v>649</v>
+      </c>
+      <c r="P163" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>650</v>
+      </c>
+      <c r="R163" s="1">
+        <v>43930</v>
+      </c>
+      <c r="S163">
+        <v>1436198</v>
+      </c>
+      <c r="T163">
+        <v>3441</v>
+      </c>
+      <c r="U163">
+        <v>395030</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q160" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q159" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Q158" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q157" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="Q156" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q155" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Q158" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q157" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q156" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q155" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>